--- a/StructureDefinition-pco-well-being-priority.xlsx
+++ b/StructureDefinition-pco-well-being-priority.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-18T20:16:34+00:00</t>
+    <t>2025-01-19T14:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Assessment observation for one aspect of a person's well-being, with a boolean value indicating whether this is a current priority.</t>
+    <t>Assessment observation for one element of a person's well-being, with a boolean value indicating whether this is a current priority.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-pco-well-being-priority.xlsx
+++ b/StructureDefinition-pco-well-being-priority.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T14:30:29+00:00</t>
+    <t>2025-01-19T16:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -688,7 +688,7 @@
     <t>Well-Being resource category</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/well-being-categories</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-categories</t>
   </si>
   <si>
     <t>Observation.code</t>
